--- a/cars.xlsx
+++ b/cars.xlsx
@@ -1,34 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanyi/projects/db-exercise/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9515" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="make" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Make</t>
+  </si>
   <si>
     <t>Volkswagen</t>
   </si>
@@ -45,39 +38,45 @@
     <t>Skoda</t>
   </si>
   <si>
+    <t>Citroen</t>
+  </si>
+  <si>
+    <t>Opel</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>Make_id</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
     <t>Golf</t>
   </si>
   <si>
+    <t>red</t>
+  </si>
+  <si>
     <t>Accord</t>
   </si>
   <si>
     <t>Fabia</t>
   </si>
   <si>
-    <t>red</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
     <t>white</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>Make</t>
-  </si>
-  <si>
-    <t>Make_id</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
@@ -87,12 +86,12 @@
     <t>Auris</t>
   </si>
   <si>
+    <t>blue</t>
+  </si>
+  <si>
     <t>Prius</t>
   </si>
   <si>
-    <t>blue</t>
-  </si>
-  <si>
     <t>Civic</t>
   </si>
   <si>
@@ -111,28 +110,16 @@
     <t>orange</t>
   </si>
   <si>
+    <t>Corolla</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>Polo</t>
+  </si>
+  <si>
     <t>Octavia</t>
-  </si>
-  <si>
-    <t>Polo</t>
-  </si>
-  <si>
-    <t>Corolla</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Citroen</t>
-  </si>
-  <si>
-    <t>Opel</t>
-  </si>
-  <si>
-    <t>Tesla</t>
   </si>
   <si>
     <t>Model S</t>
@@ -141,25 +128,368 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -167,17 +497,306 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -230,7 +849,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -265,7 +884,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -439,115 +1058,150 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="2"/>
+  <cols>
+    <col min="3" max="3" width="44.2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE("INSERT INTO cars (make) VALUES (",B2,");")</f>
+        <v>INSERT INTO cars (make) VALUES (Volkswagen);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C9" si="0">CONCATENATE("INSERT INTO cars (make) VALUES (",B3,");")</f>
+        <v>INSERT INTO cars (make) VALUES (Toyota);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make) VALUES (Honda);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make) VALUES (Audi);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make) VALUES (Skoda);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make) VALUES (Citroen);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make) VALUES (Opel);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>9</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make) VALUES (Tesla);</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
+  <cols>
+    <col min="5" max="5" width="76.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -559,679 +1213,871 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>2007</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="E2" t="str">
+        <f>CONCATENATE("INSERT INTO cars (make_id, model, year, color) VALUES (",A2,", ",B2,", ",C2,", ",D2,");")</f>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (1, Golf, 2007, red);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>2000</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E34" si="0">CONCATENATE("INSERT INTO cars (make_id, model, year, color) VALUES (",A3,", ",B3,", ",C3,", ",D3,");")</f>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (3, Accord, 2000, red);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>2016</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (5, Fabia, 2016, black);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>2008</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (1, Golf, 2008, white);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>1999</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (4, A4, 1999, green);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>2011</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (2, Auris, 2011, blue);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>2011</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (2, Prius, 2011, white);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>2016</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (5, Fabia, 2016, black);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>2008</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (1, Golf, 2008, white);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>1999</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (4, A4, 1999, green);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>2005</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (3, Civic, 2005, green);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>2016</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (5, Superb, 2016, black);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>2017</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (1, Up, 2017, black);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>1996</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (4, A4 Quatro, 1996, grey);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>2007</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (1, Golf, 2007, red);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>2000</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (3, Accord, 2000, red);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>2016</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (5, Fabia, 2016, black);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>2008</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (1, Golf, 2008, white);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>1999</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (4, A4, 1999, green);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C21">
         <v>2011</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (2, Auris, 2011, blue);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>2011</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (2, Prius, 2011, white);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C23">
         <v>2016</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (5, Fabia, 2016, black);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C24">
         <v>2008</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (1, Golf, 2008, white);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C25">
         <v>1999</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (4, A4, 1999, green);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>2016</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (5, Superb, 2016, black);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>2017</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (1, Up, 2017, black);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>1996</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (4, A4 Quatro, 1996, grey);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C29">
         <v>2007</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (1, Golf, 2007, red);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C30">
         <v>2000</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (3, Accord, 2000, red);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C31">
         <v>2008</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (1, Golf, 2008, orange);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C32">
         <v>1999</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (4, A4, 1999, green);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C33">
         <v>2011</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (2, Auris, 2011, blue);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C34">
         <v>2011</v>
       </c>
       <c r="D34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (2, Corolla, 2011, gold);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C35">
         <v>2016</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" ref="E35:E57" si="1">CONCATENATE("INSERT INTO cars (make_id, model, year, color) VALUES (",A35,", ",B35,", ",C35,", ",D35,");")</f>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (5, Fabia, 2016, blue);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C36">
         <v>2008</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (1, Polo, 2008, white);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C37">
         <v>1999</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (4, A4, 1999, green);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C38">
         <v>2005</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (3, Civic, 2005, black);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C39">
         <v>2016</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (5, Octavia, 2016, red);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C40">
         <v>2017</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (1, Up, 2017, black);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C41">
         <v>1996</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (4, A4 Quatro, 1996, red);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C42">
         <v>2016</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (5, Superb, 2016, black);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C43">
         <v>2017</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (1, Up, 2017, black);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>2001</v>
       </c>
       <c r="D44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (4, A4 Quatro, 2001, grey);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C45">
         <v>2007</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (1, Golf, 2007, red);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C46">
         <v>2016</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (5, Fabia, 2016, black);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C47">
         <v>1998</v>
       </c>
       <c r="D47" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (1, Golf, 1998, orange);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C48">
         <v>1999</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (4, A4, 1999, green);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C49">
         <v>2007</v>
       </c>
       <c r="D49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (2, Auris, 2007, blue);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>8</v>
       </c>
@@ -1242,10 +2088,15 @@
         <v>2015</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cars (make_id, model, year, color) VALUES (8, Model S, 2015, red);</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>